--- a/Tables_bal_final.xlsx
+++ b/Tables_bal_final.xlsx
@@ -2136,8 +2136,8 @@
   </sheetPr>
   <dimension ref="A1:P487"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D330" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A282" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C308" activeCellId="0" sqref="C308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11945,7 +11945,7 @@
   <dimension ref="A1:I247"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C248" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="C248" activeCellId="0" sqref="C248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17972,7 +17972,7 @@
   <dimension ref="B1:J247"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23367,8 +23367,8 @@
   </sheetPr>
   <dimension ref="A1:D473"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I233" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K229" activeCellId="0" sqref="K229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24268,6 +24268,9 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="59" t="n">
+        <v>107</v>
+      </c>
       <c r="B61" s="12" t="s">
         <v>289</v>
       </c>
